--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/trans/braactsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B77A1F-6E15-984D-94E8-2DE3F9C9F3F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -165,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -179,6 +189,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -214,7 +225,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -508,21 +525,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="9">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,95 +550,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1.0529130131709286</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -629,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -640,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -651,7 +671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -663,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -675,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -694,7 +714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -702,13 +722,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -812,7 +832,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>

--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/trans/braactsc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/braactsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B77A1F-6E15-984D-94E8-2DE3F9C9F3F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437C551-AA90-6143-862E-71076DB86732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3819D96D-D99E-46F3-B2F6-9389718A18C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DA3E91-76B2-4E00-B280-A24BBC976430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="income">Calculations!$B$10</definedName>
+    <definedName name="Range_EV">Calculations!$B$9</definedName>
+    <definedName name="range_ICE">Calculations!$B$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Source:</t>
   </si>
@@ -58,10 +86,169 @@
     <t>Cost ($/vehicle)</t>
   </si>
   <si>
-    <t>In the US, we set this value to 0.</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>addressed by fueling availability and range value</t>
+  </si>
+  <si>
+    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
+  </si>
+  <si>
+    <t>Fueling time</t>
+  </si>
+  <si>
+    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
+  </si>
+  <si>
+    <t>Fueling Availability</t>
+  </si>
+  <si>
+    <t>income (thousand USD)</t>
+  </si>
+  <si>
+    <t>range ev (hundred miles)</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>Range Compensating Value</t>
+  </si>
+  <si>
+    <t>cv (thousand USD)</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
+  </si>
+  <si>
+    <t>Median US Income</t>
+  </si>
+  <si>
+    <t>United States Census Bureau</t>
+  </si>
+  <si>
+    <t>Income and Poverty in the United States: 2019</t>
+  </si>
+  <si>
+    <t>First bullet of "Highlights"</t>
+  </si>
+  <si>
+    <t>2019 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Range and Fueling Availability 'Costs'</t>
+  </si>
+  <si>
+    <t>US Department of Energy</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy13osti/55639.pdf</t>
+  </si>
+  <si>
+    <t>EVSE ports:</t>
+  </si>
+  <si>
+    <t>Number of gas pumps</t>
+  </si>
+  <si>
+    <t>Ratio of EVSE ports:Gas pumps</t>
+  </si>
+  <si>
+    <t>Corresponding Fueling Availbility Shadow Cost</t>
+  </si>
+  <si>
+    <t>Number of Gas pumps</t>
+  </si>
+  <si>
+    <t>CleanTechnica</t>
+  </si>
+  <si>
+    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
+  </si>
+  <si>
+    <t>Number of EVSE Ports</t>
+  </si>
+  <si>
+    <t>Alternative Fuels Data Center</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Charging Station Locations</t>
+  </si>
+  <si>
+    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
+  </si>
+  <si>
+    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
+  </si>
+  <si>
+    <t>Gasoline vehicle range</t>
+  </si>
+  <si>
+    <t>All-Electric Vehicle Ranges Can Exceed Those of Some Gasoline Vehicles</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/eere/vehicles/fact-939-august-22-2016-all-electric-vehicle-ranges-can-exceed-those-some-gasoline</t>
+  </si>
+  <si>
+    <t>First Figure</t>
+  </si>
+  <si>
+    <t>median range ice (hundred miles)</t>
+  </si>
+  <si>
+    <t>Inside Evs</t>
+  </si>
+  <si>
+    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
+  </si>
+  <si>
+    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
+  </si>
+  <si>
+    <t>EV range</t>
+  </si>
+  <si>
+    <t>In the US, we use a DOE study to calculate a Range Compensating Value and a Fuel Availability Value.</t>
+  </si>
+  <si>
+    <t>The Range Compensating Value uses parameters from the DOE study, the median household income,</t>
+  </si>
+  <si>
+    <t>and the median ranges of ICE and EV vehicles. For EV vehicles, the current median range has already surpassed</t>
+  </si>
+  <si>
+    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
+  </si>
+  <si>
+    <t>Currency Conversion</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Year 2020</t>
+  </si>
+  <si>
+    <t>Year 2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 miles and is forecated to continue improving. Therefore, we start with today's median range, and assume </t>
+  </si>
+  <si>
+    <t>the range will reach 300 miles by 2050.</t>
+  </si>
+  <si>
+    <t>EV charging ports and gas pumps. We also assume this value will decline to 0 by 2050 as more EV chargers come online.</t>
+  </si>
+  <si>
+    <t>Year 2030</t>
   </si>
 </sst>
 </file>
@@ -88,12 +275,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -117,6 +310,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +330,930 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$A$16:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$B$16:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32E9-416A-9551-2ECD6C9DF478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="280233536"/>
+        <c:axId val="280232704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="280233536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280232704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="280232704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280233536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C090063C-A7D3-43BB-8DEB-94B1128AD112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,52 +1519,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>0.89805481563188172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -450,261 +1767,501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A17B3-AFD9-42DA-AB68-E46FC6CF1D40}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>-0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1.268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>-0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>4.12</v>
+      </c>
+      <c r="C8">
+        <v>4.12</v>
+      </c>
+      <c r="D8">
+        <f>B8</f>
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2.59</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>68.703000000000003</v>
+      </c>
+      <c r="C10">
+        <f>income</f>
+        <v>68.703000000000003</v>
+      </c>
+      <c r="D10">
+        <f>B10</f>
+        <v>68.703000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6">
+        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)</f>
+        <v>8.7776895901028578</v>
+      </c>
+      <c r="C13" s="6">
+        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)</f>
+        <v>5.8013729917508945</v>
+      </c>
+      <c r="D13" s="6">
+        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="B17">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>120045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <f>B23/B24</f>
+        <v>0.1000375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <f>B18</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33">
+        <f>B13*1000+B26</f>
+        <v>9777.6895901028583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2030</v>
+      </c>
+      <c r="B34">
+        <f>C13*1000+B26</f>
+        <v>6801.3729917508945</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2050</v>
+      </c>
+      <c r="B35">
+        <f>D13*1000+B26</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D1" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F1" s="4">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="H1" s="4">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="I1">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="J1" s="4">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="K1">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="L1" s="4">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="M1">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="N1" s="4">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="O1">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="P1" s="4">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="Q1">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="R1" s="4">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="S1">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="T1" s="4">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="U1">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="V1" s="4">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="W1">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="X1" s="4">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="Y1">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="Z1" s="4">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="AA1">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="AB1" s="4">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="AC1">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="AD1" s="4">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="AE1">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="AF1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="AG1">
-        <v>2049</v>
-      </c>
-      <c r="AH1" s="4">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <f>$B2</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:AH2" si="0">$B2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B2" s="3" cm="1">
+        <f t="array" ref="B2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!B1)</f>
+        <v>9777.6895901027601</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!C1)</f>
+        <v>9480.0579302676488</v>
+      </c>
+      <c r="D2" s="3" cm="1">
+        <f t="array" ref="D2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!D1)</f>
+        <v>9182.426270432421</v>
+      </c>
+      <c r="E2" s="3" cm="1">
+        <f t="array" ref="E2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!E1)</f>
+        <v>8884.7946105971932</v>
+      </c>
+      <c r="F2" s="3" cm="1">
+        <f t="array" ref="F2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!F1)</f>
+        <v>8587.1629507620819</v>
+      </c>
+      <c r="G2" s="3" cm="1">
+        <f t="array" ref="G2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!G1)</f>
+        <v>8289.5312909268541</v>
+      </c>
+      <c r="H2" s="3" cm="1">
+        <f t="array" ref="H2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!H1)</f>
+        <v>7991.8996310916264</v>
+      </c>
+      <c r="I2" s="3" cm="1">
+        <f t="array" ref="I2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!I1)</f>
+        <v>7694.2679712563986</v>
+      </c>
+      <c r="J2" s="3" cm="1">
+        <f t="array" ref="J2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!J1)</f>
+        <v>7396.6363114212872</v>
+      </c>
+      <c r="K2" s="3" cm="1">
+        <f t="array" ref="K2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!K1)</f>
+        <v>7099.0046515860595</v>
+      </c>
+      <c r="L2" s="3" cm="1">
+        <f t="array" ref="L2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!L1)</f>
+        <v>6801.3729917508317</v>
+      </c>
+      <c r="M2" s="3" cm="1">
+        <f t="array" ref="M2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!M1)</f>
+        <v>6511.3043421633774</v>
+      </c>
+      <c r="N2" s="3" cm="1">
+        <f t="array" ref="N2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!N1)</f>
+        <v>6221.2356925758068</v>
+      </c>
+      <c r="O2" s="3" cm="1">
+        <f t="array" ref="O2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!O1)</f>
+        <v>5931.1670429883525</v>
+      </c>
+      <c r="P2" s="3" cm="1">
+        <f t="array" ref="P2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!P1)</f>
+        <v>5641.0983934007818</v>
+      </c>
+      <c r="Q2" s="3" cm="1">
+        <f t="array" ref="Q2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Q1)</f>
+        <v>5351.0297438132111</v>
+      </c>
+      <c r="R2" s="3" cm="1">
+        <f t="array" ref="R2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!R1)</f>
+        <v>5060.9610942256404</v>
+      </c>
+      <c r="S2" s="3" cm="1">
+        <f t="array" ref="S2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!S1)</f>
+        <v>4770.8924446381861</v>
+      </c>
+      <c r="T2" s="3" cm="1">
+        <f t="array" ref="T2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!T1)</f>
+        <v>4480.8237950506154</v>
+      </c>
+      <c r="U2" s="3" cm="1">
+        <f t="array" ref="U2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!U1)</f>
+        <v>4190.7551454630448</v>
+      </c>
+      <c r="V2" s="3" cm="1">
+        <f t="array" ref="V2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!V1)</f>
+        <v>3900.6864958754741</v>
+      </c>
+      <c r="W2" s="3" cm="1">
+        <f t="array" ref="W2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!W1)</f>
+        <v>3610.6178462879034</v>
+      </c>
+      <c r="X2" s="3" cm="1">
+        <f t="array" ref="X2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!X1)</f>
+        <v>3320.5491967004491</v>
+      </c>
+      <c r="Y2" s="3" cm="1">
+        <f t="array" ref="Y2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Y1)</f>
+        <v>3030.4805471128784</v>
+      </c>
+      <c r="Z2" s="3" cm="1">
+        <f t="array" ref="Z2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Z1)</f>
+        <v>2740.4118975253077</v>
+      </c>
+      <c r="AA2" s="3" cm="1">
+        <f t="array" ref="AA2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AA1)</f>
+        <v>2450.343247937737</v>
+      </c>
+      <c r="AB2" s="3" cm="1">
+        <f t="array" ref="AB2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AB1)</f>
+        <v>2160.2745983502828</v>
+      </c>
+      <c r="AC2" s="3" cm="1">
+        <f t="array" ref="AC2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AC1)</f>
+        <v>1870.2059487627121</v>
+      </c>
+      <c r="AD2" s="3" cm="1">
+        <f t="array" ref="AD2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AD1)</f>
+        <v>1580.1372991751414</v>
+      </c>
+      <c r="AE2" s="3" cm="1">
+        <f t="array" ref="AE2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AE1)</f>
+        <v>1290.0686495875707</v>
+      </c>
+      <c r="AF2" s="3" cm="1">
+        <f t="array" ref="AF2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AF1)</f>
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DA3E91-76B2-4E00-B280-A24BBC976430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC02F20B-346B-4E17-A776-81D370EAD24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
+    <sheet name="EV charger assumptions" sheetId="5" r:id="rId3"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="income">Calculations!$B$10</definedName>
     <definedName name="Range_EV">Calculations!$B$9</definedName>
     <definedName name="range_ICE">Calculations!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Source:</t>
   </si>
@@ -152,9 +153,6 @@
     <t>https://www.nrel.gov/docs/fy13osti/55639.pdf</t>
   </si>
   <si>
-    <t>EVSE ports:</t>
-  </si>
-  <si>
     <t>Number of gas pumps</t>
   </si>
   <si>
@@ -233,12 +231,6 @@
     <t>Calculations</t>
   </si>
   <si>
-    <t>Year 2020</t>
-  </si>
-  <si>
-    <t>Year 2050</t>
-  </si>
-  <si>
     <t xml:space="preserve">250 miles and is forecated to continue improving. Therefore, we start with today's median range, and assume </t>
   </si>
   <si>
@@ -248,7 +240,31 @@
     <t>EV charging ports and gas pumps. We also assume this value will decline to 0 by 2050 as more EV chargers come online.</t>
   </si>
   <si>
-    <t>Year 2030</t>
+    <t xml:space="preserve">*2020 median range taken from historical data. 2030 and 2050 are estimated, with the 2050 </t>
+  </si>
+  <si>
+    <t>range roughly corresponding to today's maximum range</t>
+  </si>
+  <si>
+    <t>We assume EV charger additions based on investments in the Infrastructure Investment and Jobs Act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total government funding: </t>
+  </si>
+  <si>
+    <t>($7.5 billion between 2022 and 2026), assuming 80% of the costs are paid for by the government.</t>
+  </si>
+  <si>
+    <t>Total government + private funding:</t>
+  </si>
+  <si>
+    <t>Average weighted charger cost (see trans/EVCC):</t>
+  </si>
+  <si>
+    <t>Chargers added by 2026:</t>
+  </si>
+  <si>
+    <t>2020 EVSE ports:</t>
   </si>
 </sst>
 </file>
@@ -258,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +284,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -298,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -315,8 +348,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,11 +458,47 @@
             </c:spPr>
             <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8828958880139982E-2"/>
+                  <c:y val="-0.13703885898644008"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$A$16:$A$19</c:f>
+              <c:f>Calculations!$A$17:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -444,7 +519,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$B$16:$B$19</c:f>
+              <c:f>Calculations!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1225,7 +1300,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1521,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,12 +1667,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -1607,22 +1682,22 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
@@ -1632,17 +1707,17 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -1657,27 +1732,27 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1687,12 +1762,12 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,42 +1790,42 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,21 +1837,24 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{14EF0A86-0973-41E2-9D23-51C96C77958E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A17B3-AFD9-42DA-AB68-E46FC6CF1D40}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1815,19 +1893,19 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>2030</v>
+      </c>
+      <c r="D7">
+        <v>2050</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>4.12</v>
@@ -1847,10 +1925,10 @@
       <c r="B9">
         <v>2.59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>4.12</v>
       </c>
     </row>
@@ -1861,155 +1939,210 @@
       <c r="B10">
         <v>68.703000000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <f>income</f>
         <v>68.703000000000003</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <f>B10</f>
         <v>68.703000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
-        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)</f>
-        <v>8.7776895901028578</v>
-      </c>
-      <c r="C13" s="6">
-        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)</f>
-        <v>5.8013729917508945</v>
-      </c>
-      <c r="D13" s="6">
-        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)</f>
+      <c r="B14" s="6">
+        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)*About!$B$53</f>
+        <v>7.8828464065137096</v>
+      </c>
+      <c r="C14" s="6">
+        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)*About!$B$53</f>
+        <v>5.2099509525186276</v>
+      </c>
+      <c r="D14" s="6">
+        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)*About!$B$53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>7500</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>0.05</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1750</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>0.1</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>120045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
-        <v>120045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>2027</v>
+      </c>
+      <c r="D27">
+        <v>2030</v>
+      </c>
+      <c r="E27">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B28">
+        <f>B24/B25</f>
+        <v>0.1000375</v>
+      </c>
+      <c r="C28">
+        <f>(B24+'EV charger assumptions'!B9)/Calculations!B25</f>
+        <v>0.41965865943214825</v>
+      </c>
+      <c r="D28">
+        <f>(E28-C28)/(E27-C27)*3+C28</f>
+        <v>0.495355356027955</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
-        <f>B23/B24</f>
-        <v>0.1000375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <f>B18</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B29">
+        <f>B19*About!$B$53</f>
+        <v>898.05481563188175</v>
+      </c>
+      <c r="C29">
+        <f>-667.1*LN(C28)-241.23</f>
+        <v>338.02201174921117</v>
+      </c>
+      <c r="D29">
+        <f>-667.1*LN(D28)-241.23</f>
+        <v>227.39432995486422</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2020</v>
       </c>
-      <c r="B33">
-        <f>B13*1000+B26</f>
-        <v>9777.6895901028583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B36">
+        <f>B14*1000+B29</f>
+        <v>8780.9012221455905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2027</v>
+      </c>
+      <c r="B37" cm="1">
+        <f t="array" ref="B37">TREND(B14:C14,B7:C7,C27)*1000+C29</f>
+        <v>6349.8416004663277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2030</v>
       </c>
-      <c r="B34">
-        <f>C13*1000+B26</f>
-        <v>6801.3729917508945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B38">
+        <f>C14*1000+D29</f>
+        <v>5437.3452824734923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2050</v>
       </c>
-      <c r="B35">
-        <f>D13*1000+B26</f>
-        <v>1000</v>
+      <c r="B39">
+        <f>D14*1000+E29</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2020,14 +2153,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D98A39-3A78-451F-9516-0CF8624C92E2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>7500000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <f>B4/0.8</f>
+        <v>9375000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>24443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B5/B7</f>
+        <v>383545.39131857792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,128 +2334,128 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" cm="1">
-        <f t="array" ref="B2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!B1)</f>
-        <v>9777.6895901027601</v>
+        <f t="array" ref="B2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!B1)</f>
+        <v>8780.9012221456505</v>
       </c>
       <c r="C2" s="3" cm="1">
-        <f t="array" ref="C2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!C1)</f>
-        <v>9480.0579302676488</v>
+        <f t="array" ref="C2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!C1)</f>
+        <v>8433.6069904771866</v>
       </c>
       <c r="D2" s="3" cm="1">
-        <f t="array" ref="D2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!D1)</f>
-        <v>9182.426270432421</v>
+        <f t="array" ref="D2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!D1)</f>
+        <v>8086.3127588086063</v>
       </c>
       <c r="E2" s="3" cm="1">
-        <f t="array" ref="E2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!E1)</f>
-        <v>8884.7946105971932</v>
+        <f t="array" ref="E2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!E1)</f>
+        <v>7739.0185271401424</v>
       </c>
       <c r="F2" s="3" cm="1">
-        <f t="array" ref="F2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!F1)</f>
-        <v>8587.1629507620819</v>
+        <f t="array" ref="F2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!F1)</f>
+        <v>7391.7242954716785</v>
       </c>
       <c r="G2" s="3" cm="1">
-        <f t="array" ref="G2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!G1)</f>
-        <v>8289.5312909268541</v>
+        <f t="array" ref="G2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!G1)</f>
+        <v>7044.4300638032146</v>
       </c>
       <c r="H2" s="3" cm="1">
-        <f t="array" ref="H2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!H1)</f>
-        <v>7991.8996310916264</v>
+        <f t="array" ref="H2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!H1)</f>
+        <v>6697.1358321347507</v>
       </c>
       <c r="I2" s="3" cm="1">
-        <f t="array" ref="I2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!I1)</f>
-        <v>7694.2679712563986</v>
+        <f t="array" ref="I2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!I1)</f>
+        <v>6349.8416004662868</v>
       </c>
       <c r="J2" s="3" cm="1">
-        <f t="array" ref="J2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!J1)</f>
-        <v>7396.6363114212872</v>
+        <f t="array" ref="J2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!J1)</f>
+        <v>6045.6761611354304</v>
       </c>
       <c r="K2" s="3" cm="1">
-        <f t="array" ref="K2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!K1)</f>
-        <v>7099.0046515860595</v>
+        <f t="array" ref="K2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!K1)</f>
+        <v>5741.5107218045741</v>
       </c>
       <c r="L2" s="3" cm="1">
-        <f t="array" ref="L2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!L1)</f>
-        <v>6801.3729917508317</v>
+        <f t="array" ref="L2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!L1)</f>
+        <v>5437.3452824736014</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!M1)</f>
-        <v>6511.3043421633774</v>
+        <f t="array" ref="M2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!M1)</f>
+        <v>5165.4780183498515</v>
       </c>
       <c r="N2" s="3" cm="1">
-        <f t="array" ref="N2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!N1)</f>
-        <v>6221.2356925758068</v>
+        <f t="array" ref="N2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!N1)</f>
+        <v>4893.610754226218</v>
       </c>
       <c r="O2" s="3" cm="1">
-        <f t="array" ref="O2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!O1)</f>
-        <v>5931.1670429883525</v>
+        <f t="array" ref="O2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!O1)</f>
+        <v>4621.7434901024681</v>
       </c>
       <c r="P2" s="3" cm="1">
-        <f t="array" ref="P2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!P1)</f>
-        <v>5641.0983934007818</v>
+        <f t="array" ref="P2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!P1)</f>
+        <v>4349.8762259788346</v>
       </c>
       <c r="Q2" s="3" cm="1">
-        <f t="array" ref="Q2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Q1)</f>
-        <v>5351.0297438132111</v>
+        <f t="array" ref="Q2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Q1)</f>
+        <v>4078.0089618552011</v>
       </c>
       <c r="R2" s="3" cm="1">
-        <f t="array" ref="R2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!R1)</f>
-        <v>5060.9610942256404</v>
+        <f t="array" ref="R2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!R1)</f>
+        <v>3806.1416977314511</v>
       </c>
       <c r="S2" s="3" cm="1">
-        <f t="array" ref="S2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!S1)</f>
-        <v>4770.8924446381861</v>
+        <f t="array" ref="S2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!S1)</f>
+        <v>3534.2744336078176</v>
       </c>
       <c r="T2" s="3" cm="1">
-        <f t="array" ref="T2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!T1)</f>
-        <v>4480.8237950506154</v>
+        <f t="array" ref="T2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!T1)</f>
+        <v>3262.4071694841841</v>
       </c>
       <c r="U2" s="3" cm="1">
-        <f t="array" ref="U2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!U1)</f>
-        <v>4190.7551454630448</v>
+        <f t="array" ref="U2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!U1)</f>
+        <v>2990.5399053604342</v>
       </c>
       <c r="V2" s="3" cm="1">
-        <f t="array" ref="V2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!V1)</f>
-        <v>3900.6864958754741</v>
+        <f t="array" ref="V2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!V1)</f>
+        <v>2718.6726412368007</v>
       </c>
       <c r="W2" s="3" cm="1">
-        <f t="array" ref="W2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!W1)</f>
-        <v>3610.6178462879034</v>
+        <f t="array" ref="W2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!W1)</f>
+        <v>2446.8053771130508</v>
       </c>
       <c r="X2" s="3" cm="1">
-        <f t="array" ref="X2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!X1)</f>
-        <v>3320.5491967004491</v>
+        <f t="array" ref="X2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!X1)</f>
+        <v>2174.9381129894173</v>
       </c>
       <c r="Y2" s="3" cm="1">
-        <f t="array" ref="Y2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Y1)</f>
-        <v>3030.4805471128784</v>
+        <f t="array" ref="Y2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Y1)</f>
+        <v>1903.0708488657838</v>
       </c>
       <c r="Z2" s="3" cm="1">
-        <f t="array" ref="Z2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Z1)</f>
-        <v>2740.4118975253077</v>
+        <f t="array" ref="Z2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Z1)</f>
+        <v>1631.2035847420339</v>
       </c>
       <c r="AA2" s="3" cm="1">
-        <f t="array" ref="AA2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AA1)</f>
-        <v>2450.343247937737</v>
+        <f t="array" ref="AA2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AA1)</f>
+        <v>1359.3363206184004</v>
       </c>
       <c r="AB2" s="3" cm="1">
-        <f t="array" ref="AB2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AB1)</f>
-        <v>2160.2745983502828</v>
+        <f t="array" ref="AB2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AB1)</f>
+        <v>1087.4690564947668</v>
       </c>
       <c r="AC2" s="3" cm="1">
-        <f t="array" ref="AC2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AC1)</f>
-        <v>1870.2059487627121</v>
+        <f t="array" ref="AC2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AC1)</f>
+        <v>815.60179237101693</v>
       </c>
       <c r="AD2" s="3" cm="1">
-        <f t="array" ref="AD2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AD1)</f>
-        <v>1580.1372991751414</v>
+        <f t="array" ref="AD2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AD1)</f>
+        <v>543.73452824738342</v>
       </c>
       <c r="AE2" s="3" cm="1">
-        <f t="array" ref="AE2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AE1)</f>
-        <v>1290.0686495875707</v>
+        <f t="array" ref="AE2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AE1)</f>
+        <v>271.86726412374992</v>
       </c>
       <c r="AF2" s="3" cm="1">
-        <f t="array" ref="AF2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AF1)</f>
-        <v>1000</v>
+        <f t="array" ref="AF2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AF1)</f>
+        <v>0</v>
       </c>
       <c r="AG2" s="3"/>
     </row>
